--- a/2732018 - Data Visualization/Proyek1/src/Excel/Report_2017_Januari.xlsx
+++ b/2732018 - Data Visualization/Proyek1/src/Excel/Report_2017_Januari.xlsx
@@ -12,9 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="308">
   <si>
     <t>Order ID</t>
+  </si>
+  <si>
+    <t>Order Date</t>
   </si>
   <si>
     <t>Ship Date</t>
@@ -985,7 +988,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="15.98046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="8.68359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.01171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.59765625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="14.07421875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="20.12890625" customWidth="true" bestFit="true"/>
@@ -1003,46 +1006,46 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>42736.0</v>
@@ -1051,16 +1054,16 @@
         <v>42737.0</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
         <v>3.6</v>
@@ -1083,7 +1086,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>42736.0</v>
@@ -1092,16 +1095,16 @@
         <v>42741.0</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" t="n">
         <v>48.896</v>
@@ -1124,7 +1127,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>42736.0</v>
@@ -1133,16 +1136,16 @@
         <v>42740.0</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" t="n">
         <v>474.43</v>
@@ -1160,12 +1163,12 @@
         <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>5218.73</v>
+        <v>5218.7300000000005</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>42736.0</v>
@@ -1174,16 +1177,16 @@
         <v>42740.0</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" t="n">
         <v>454.56</v>
@@ -1201,12 +1204,12 @@
         <v>0.0</v>
       </c>
       <c r="M5" t="n">
-        <v>1818.24</v>
+        <v>1818.2400000000002</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>42736.0</v>
@@ -1215,16 +1218,16 @@
         <v>42740.0</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6" t="n">
         <v>141.42</v>
@@ -1247,7 +1250,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>42736.0</v>
@@ -1256,16 +1259,16 @@
         <v>42740.0</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" t="n">
         <v>310.744</v>
@@ -1288,7 +1291,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>42736.0</v>
@@ -1297,16 +1300,16 @@
         <v>42740.0</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8" t="n">
         <v>12.736</v>
@@ -1329,7 +1332,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>42736.0</v>
@@ -1338,16 +1341,16 @@
         <v>42740.0</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9" t="n">
         <v>6.47</v>
@@ -1365,12 +1368,12 @@
         <v>0.0</v>
       </c>
       <c r="M9" t="n">
-        <v>6.47</v>
+        <v>6.469999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>42736.0</v>
@@ -1379,16 +1382,16 @@
         <v>42740.0</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10" t="n">
         <v>13.748</v>
@@ -1406,12 +1409,12 @@
         <v>0.0</v>
       </c>
       <c r="M10" t="n">
-        <v>38.4944</v>
+        <v>38.494399999999985</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>42736.0</v>
@@ -1420,16 +1423,16 @@
         <v>42740.0</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H11" t="n">
         <v>15.224</v>
@@ -1447,12 +1450,12 @@
         <v>0.0</v>
       </c>
       <c r="M11" t="n">
-        <v>6.0896</v>
+        <v>6.089599999999997</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>42737.0</v>
@@ -1461,16 +1464,16 @@
         <v>42739.0</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H12" t="n">
         <v>695.7</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>42737.0</v>
@@ -1502,16 +1505,16 @@
         <v>42739.0</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H13" t="n">
         <v>15.66</v>
@@ -1529,12 +1532,12 @@
         <v>0.0</v>
       </c>
       <c r="M13" t="n">
-        <v>23.49</v>
+        <v>23.490000000000002</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>42737.0</v>
@@ -1543,16 +1546,16 @@
         <v>42739.0</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H14" t="n">
         <v>28.854</v>
@@ -1570,12 +1573,12 @@
         <v>0.0</v>
       </c>
       <c r="M14" t="n">
-        <v>51.9372</v>
+        <v>51.937200000000004</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>42737.0</v>
@@ -1584,16 +1587,16 @@
         <v>42739.0</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H15" t="n">
         <v>16.59</v>
@@ -1616,7 +1619,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>42737.0</v>
@@ -1625,16 +1628,16 @@
         <v>42739.0</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H16" t="n">
         <v>31.744</v>
@@ -1657,7 +1660,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>42737.0</v>
@@ -1666,16 +1669,16 @@
         <v>42739.0</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H17" t="n">
         <v>5.432</v>
@@ -1693,12 +1696,12 @@
         <v>0.0</v>
       </c>
       <c r="M17" t="n">
-        <v>2.1728</v>
+        <v>2.1728000000000005</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>42737.0</v>
@@ -1707,16 +1710,16 @@
         <v>42739.0</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" t="n">
         <v>913.43</v>
@@ -1739,7 +1742,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>42737.0</v>
@@ -1748,16 +1751,16 @@
         <v>42739.0</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H19" t="n">
         <v>372.144</v>
@@ -1775,12 +1778,12 @@
         <v>0.0</v>
       </c>
       <c r="M19" t="n">
-        <v>893.1456</v>
+        <v>893.1456000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>42738.0</v>
@@ -1789,16 +1792,16 @@
         <v>42742.0</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H20" t="n">
         <v>2022.272</v>
@@ -1816,12 +1819,12 @@
         <v>0.0</v>
       </c>
       <c r="M20" t="n">
-        <v>12942.5408</v>
+        <v>12942.540799999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>42738.0</v>
@@ -1830,16 +1833,16 @@
         <v>42742.0</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H21" t="n">
         <v>9.12</v>
@@ -1862,7 +1865,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>42738.0</v>
@@ -1871,16 +1874,16 @@
         <v>42743.0</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H22" t="n">
         <v>38.88</v>
@@ -1898,12 +1901,12 @@
         <v>0.0</v>
       </c>
       <c r="M22" t="n">
-        <v>233.28</v>
+        <v>233.28000000000003</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>42741.0</v>
@@ -1912,16 +1915,16 @@
         <v>42748.0</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H23" t="n">
         <v>33.74</v>
@@ -1944,7 +1947,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>42742.0</v>
@@ -1953,16 +1956,16 @@
         <v>42745.0</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H24" t="n">
         <v>3059.982</v>
@@ -1985,7 +1988,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>42742.0</v>
@@ -1994,16 +1997,16 @@
         <v>42744.0</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H25" t="n">
         <v>153.78</v>
@@ -2026,7 +2029,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>42742.0</v>
@@ -2035,16 +2038,16 @@
         <v>42744.0</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H26" t="n">
         <v>61.02</v>
@@ -2067,7 +2070,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>42742.0</v>
@@ -2076,16 +2079,16 @@
         <v>42744.0</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H27" t="n">
         <v>110.11</v>
@@ -2108,7 +2111,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>42742.0</v>
@@ -2117,16 +2120,16 @@
         <v>42744.0</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H28" t="n">
         <v>7.89</v>
@@ -2149,7 +2152,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>42742.0</v>
@@ -2158,16 +2161,16 @@
         <v>42748.0</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H29" t="n">
         <v>2.808</v>
@@ -2185,12 +2188,12 @@
         <v>0.0</v>
       </c>
       <c r="M29" t="n">
-        <v>2.5272</v>
+        <v>2.5272000000000006</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>42743.0</v>
@@ -2199,16 +2202,16 @@
         <v>42746.0</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H30" t="n">
         <v>892.98</v>
@@ -2231,7 +2234,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>42744.0</v>
@@ -2240,16 +2243,16 @@
         <v>42748.0</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H31" t="n">
         <v>274.491</v>
@@ -2267,12 +2270,12 @@
         <v>0.0</v>
       </c>
       <c r="M31" t="n">
-        <v>247.0419</v>
+        <v>247.04190000000006</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>42747.0</v>
@@ -2281,16 +2284,16 @@
         <v>42752.0</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H32" t="n">
         <v>40.08</v>
@@ -2313,7 +2316,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>42747.0</v>
@@ -2322,16 +2325,16 @@
         <v>42752.0</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H33" t="n">
         <v>37.68</v>
@@ -2354,7 +2357,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>42747.0</v>
@@ -2363,16 +2366,16 @@
         <v>42751.0</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H34" t="n">
         <v>9.78</v>
@@ -2395,7 +2398,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>42747.0</v>
@@ -2404,16 +2407,16 @@
         <v>42751.0</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H35" t="n">
         <v>760.98</v>
@@ -2436,7 +2439,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>42748.0</v>
@@ -2445,16 +2448,16 @@
         <v>42753.0</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H36" t="n">
         <v>32.4</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>42748.0</v>
@@ -2486,16 +2489,16 @@
         <v>42753.0</v>
       </c>
       <c r="D37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H37" t="n">
         <v>209.94</v>
@@ -2513,12 +2516,12 @@
         <v>0.0</v>
       </c>
       <c r="M37" t="n">
-        <v>1259.64</v>
+        <v>1259.6399999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>42748.0</v>
@@ -2527,16 +2530,16 @@
         <v>42753.0</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G38" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H38" t="n">
         <v>4164.05</v>
@@ -2559,7 +2562,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>42748.0</v>
@@ -2568,16 +2571,16 @@
         <v>42753.0</v>
       </c>
       <c r="D39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G39" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H39" t="n">
         <v>212.94</v>
@@ -2595,12 +2598,12 @@
         <v>0.0</v>
       </c>
       <c r="M39" t="n">
-        <v>638.82</v>
+        <v>638.8199999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>42749.0</v>
@@ -2609,16 +2612,16 @@
         <v>42750.0</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H40" t="n">
         <v>21.744</v>
@@ -2641,7 +2644,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>42749.0</v>
@@ -2650,16 +2653,16 @@
         <v>42750.0</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H41" t="n">
         <v>7.92</v>
@@ -2682,7 +2685,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>42749.0</v>
@@ -2691,16 +2694,16 @@
         <v>42751.0</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G42" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H42" t="n">
         <v>169.064</v>
@@ -2718,12 +2721,12 @@
         <v>0.0</v>
       </c>
       <c r="M42" t="n">
-        <v>946.7584</v>
+        <v>946.7583999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>42749.0</v>
@@ -2732,16 +2735,16 @@
         <v>42751.0</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E43" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G43" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H43" t="n">
         <v>168.624</v>
@@ -2764,7 +2767,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>42749.0</v>
@@ -2773,16 +2776,16 @@
         <v>42755.0</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E44" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G44" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H44" t="n">
         <v>67.4</v>
@@ -2805,7 +2808,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>42749.0</v>
@@ -2814,16 +2817,16 @@
         <v>42755.0</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E45" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H45" t="n">
         <v>2.52</v>
@@ -2846,7 +2849,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>42749.0</v>
@@ -2855,16 +2858,16 @@
         <v>42755.0</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G46" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H46" t="n">
         <v>67.8</v>
@@ -2887,7 +2890,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>42749.0</v>
@@ -2896,16 +2899,16 @@
         <v>42755.0</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E47" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G47" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H47" t="n">
         <v>18.76</v>
@@ -2928,7 +2931,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>42749.0</v>
@@ -2937,16 +2940,16 @@
         <v>42755.0</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E48" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G48" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H48" t="n">
         <v>12.12</v>
@@ -2969,7 +2972,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>42749.0</v>
@@ -2978,16 +2981,16 @@
         <v>42755.0</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E49" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G49" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H49" t="n">
         <v>11.34</v>
@@ -3010,7 +3013,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>42749.0</v>
@@ -3019,16 +3022,16 @@
         <v>42755.0</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E50" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G50" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H50" t="n">
         <v>159.8</v>
@@ -3051,7 +3054,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>42749.0</v>
@@ -3060,16 +3063,16 @@
         <v>42755.0</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E51" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G51" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H51" t="n">
         <v>18.96</v>
@@ -3092,7 +3095,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>42749.0</v>
@@ -3101,16 +3104,16 @@
         <v>42753.0</v>
       </c>
       <c r="D52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E52" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H52" t="n">
         <v>18.336</v>
@@ -3133,7 +3136,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>42749.0</v>
@@ -3142,16 +3145,16 @@
         <v>42753.0</v>
       </c>
       <c r="D53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E53" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H53" t="n">
         <v>36.288</v>
@@ -3169,12 +3172,12 @@
         <v>0.0</v>
       </c>
       <c r="M53" t="n">
-        <v>203.2128</v>
+        <v>203.21279999999996</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>42749.0</v>
@@ -3183,16 +3186,16 @@
         <v>42753.0</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E54" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H54" t="n">
         <v>111.984</v>
@@ -3215,7 +3218,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>42749.0</v>
@@ -3224,16 +3227,16 @@
         <v>42753.0</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E55" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G55" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H55" t="n">
         <v>5.97</v>
@@ -3251,12 +3254,12 @@
         <v>0.0</v>
       </c>
       <c r="M55" t="n">
-        <v>8.955</v>
+        <v>8.955000000000002</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>42749.0</v>
@@ -3265,16 +3268,16 @@
         <v>42753.0</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E56" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G56" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H56" t="n">
         <v>2.508</v>
@@ -3292,12 +3295,12 @@
         <v>0.0</v>
       </c>
       <c r="M56" t="n">
-        <v>1.5048</v>
+        <v>1.5048000000000004</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>42749.0</v>
@@ -3306,16 +3309,16 @@
         <v>42754.0</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E57" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F57" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G57" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H57" t="n">
         <v>154.9</v>
@@ -3338,7 +3341,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>42750.0</v>
@@ -3347,16 +3350,16 @@
         <v>42753.0</v>
       </c>
       <c r="D58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E58" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G58" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H58" t="n">
         <v>34.384</v>
@@ -3379,7 +3382,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>42750.0</v>
@@ -3388,16 +3391,16 @@
         <v>42753.0</v>
       </c>
       <c r="D59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E59" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G59" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H59" t="n">
         <v>1924.16</v>
@@ -3420,7 +3423,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>42750.0</v>
@@ -3429,16 +3432,16 @@
         <v>42753.0</v>
       </c>
       <c r="D60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E60" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G60" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H60" t="n">
         <v>32.784</v>
@@ -3456,12 +3459,12 @@
         <v>0.0</v>
       </c>
       <c r="M60" t="n">
-        <v>26.2272</v>
+        <v>26.227199999999996</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>42750.0</v>
@@ -3470,16 +3473,16 @@
         <v>42753.0</v>
       </c>
       <c r="D61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E61" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G61" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H61" t="n">
         <v>47.984</v>
@@ -3502,7 +3505,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>42750.0</v>
@@ -3511,16 +3514,16 @@
         <v>42753.0</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E62" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G62" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H62" t="n">
         <v>62.592</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>42750.0</v>
@@ -3552,16 +3555,16 @@
         <v>42753.0</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E63" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F63" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G63" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H63" t="n">
         <v>4.276</v>
@@ -3584,7 +3587,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>42750.0</v>
@@ -3593,16 +3596,16 @@
         <v>42754.0</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E64" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G64" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H64" t="n">
         <v>12.7</v>
@@ -3625,7 +3628,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>42750.0</v>
@@ -3634,16 +3637,16 @@
         <v>42754.0</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E65" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F65" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G65" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H65" t="n">
         <v>21.4</v>
@@ -3666,7 +3669,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>42751.0</v>
@@ -3675,16 +3678,16 @@
         <v>42751.0</v>
       </c>
       <c r="D66" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E66" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F66" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G66" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H66" t="n">
         <v>27.92</v>
@@ -3707,7 +3710,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>42751.0</v>
@@ -3716,16 +3719,16 @@
         <v>42751.0</v>
       </c>
       <c r="D67" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E67" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F67" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G67" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H67" t="n">
         <v>399.672</v>
@@ -3748,7 +3751,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>42751.0</v>
@@ -3757,16 +3760,16 @@
         <v>42753.0</v>
       </c>
       <c r="D68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E68" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F68" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G68" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H68" t="n">
         <v>5443.96</v>
@@ -3789,7 +3792,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>42751.0</v>
@@ -3798,16 +3801,16 @@
         <v>42753.0</v>
       </c>
       <c r="D69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E69" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F69" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G69" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H69" t="n">
         <v>302.67</v>
@@ -3830,7 +3833,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>42751.0</v>
@@ -3839,16 +3842,16 @@
         <v>42753.0</v>
       </c>
       <c r="D70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E70" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F70" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G70" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H70" t="n">
         <v>56.07</v>
@@ -3871,7 +3874,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>42754.0</v>
@@ -3880,16 +3883,16 @@
         <v>42759.0</v>
       </c>
       <c r="D71" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E71" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G71" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H71" t="n">
         <v>429.6</v>
@@ -3912,7 +3915,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>42754.0</v>
@@ -3921,16 +3924,16 @@
         <v>42759.0</v>
       </c>
       <c r="D72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E72" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G72" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H72" t="n">
         <v>31.968</v>
@@ -3953,7 +3956,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>42754.0</v>
@@ -3962,16 +3965,16 @@
         <v>42759.0</v>
       </c>
       <c r="D73" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E73" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G73" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H73" t="n">
         <v>887.271</v>
@@ -3994,7 +3997,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>42754.0</v>
@@ -4003,16 +4006,16 @@
         <v>42759.0</v>
       </c>
       <c r="D74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E74" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F74" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G74" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H74" t="n">
         <v>21.696</v>
@@ -4035,7 +4038,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>42754.0</v>
@@ -4044,16 +4047,16 @@
         <v>42758.0</v>
       </c>
       <c r="D75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E75" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F75" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G75" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H75" t="n">
         <v>6.0</v>
@@ -4076,7 +4079,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>42754.0</v>
@@ -4085,16 +4088,16 @@
         <v>42758.0</v>
       </c>
       <c r="D76" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E76" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G76" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H76" t="n">
         <v>79.92</v>
@@ -4117,7 +4120,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>42754.0</v>
@@ -4126,16 +4129,16 @@
         <v>42758.0</v>
       </c>
       <c r="D77" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E77" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G77" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H77" t="n">
         <v>12.28</v>
@@ -4158,7 +4161,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>42754.0</v>
@@ -4167,16 +4170,16 @@
         <v>42758.0</v>
       </c>
       <c r="D78" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E78" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F78" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G78" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H78" t="n">
         <v>542.94</v>
@@ -4194,12 +4197,12 @@
         <v>0.0</v>
       </c>
       <c r="M78" t="n">
-        <v>1628.82</v>
+        <v>1628.8200000000002</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>42754.0</v>
@@ -4208,16 +4211,16 @@
         <v>42758.0</v>
       </c>
       <c r="D79" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E79" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G79" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H79" t="n">
         <v>2.04</v>
@@ -4240,7 +4243,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>42755.0</v>
@@ -4249,16 +4252,16 @@
         <v>42756.0</v>
       </c>
       <c r="D80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E80" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F80" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G80" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H80" t="n">
         <v>11.52</v>
@@ -4281,7 +4284,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>42755.0</v>
@@ -4290,16 +4293,16 @@
         <v>42758.0</v>
       </c>
       <c r="D81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E81" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G81" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H81" t="n">
         <v>207.846</v>
@@ -4322,7 +4325,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>42755.0</v>
@@ -4331,16 +4334,16 @@
         <v>42760.0</v>
       </c>
       <c r="D82" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E82" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F82" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G82" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H82" t="n">
         <v>24.2</v>
@@ -4363,7 +4366,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>42755.0</v>
@@ -4372,16 +4375,16 @@
         <v>42760.0</v>
       </c>
       <c r="D83" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E83" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F83" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G83" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H83" t="n">
         <v>359.976</v>
@@ -4399,12 +4402,12 @@
         <v>0.0</v>
       </c>
       <c r="M83" t="n">
-        <v>863.9424</v>
+        <v>863.9423999999999</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>42755.0</v>
@@ -4413,16 +4416,16 @@
         <v>42761.0</v>
       </c>
       <c r="D84" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E84" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F84" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G84" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H84" t="n">
         <v>160.776</v>
@@ -4440,12 +4443,12 @@
         <v>0.0</v>
       </c>
       <c r="M84" t="n">
-        <v>385.8624</v>
+        <v>385.86240000000004</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>42755.0</v>
@@ -4454,16 +4457,16 @@
         <v>42761.0</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E85" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F85" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G85" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H85" t="n">
         <v>3.52</v>
@@ -4486,7 +4489,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>42756.0</v>
@@ -4495,16 +4498,16 @@
         <v>42762.0</v>
       </c>
       <c r="D86" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E86" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F86" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G86" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H86" t="n">
         <v>14.4</v>
@@ -4527,7 +4530,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>42756.0</v>
@@ -4536,16 +4539,16 @@
         <v>42762.0</v>
       </c>
       <c r="D87" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E87" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F87" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G87" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H87" t="n">
         <v>619.95</v>
@@ -4568,7 +4571,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>42756.0</v>
@@ -4577,16 +4580,16 @@
         <v>42762.0</v>
       </c>
       <c r="D88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E88" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F88" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G88" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H88" t="n">
         <v>89.52</v>
@@ -4609,7 +4612,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>42756.0</v>
@@ -4618,16 +4621,16 @@
         <v>42762.0</v>
       </c>
       <c r="D89" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E89" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F89" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G89" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H89" t="n">
         <v>350.973</v>
@@ -4650,7 +4653,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>42756.0</v>
@@ -4659,16 +4662,16 @@
         <v>42762.0</v>
       </c>
       <c r="D90" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E90" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F90" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G90" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H90" t="n">
         <v>164.99</v>
@@ -4691,7 +4694,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>42756.0</v>
@@ -4700,16 +4703,16 @@
         <v>42760.0</v>
       </c>
       <c r="D91" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E91" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F91" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G91" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H91" t="n">
         <v>242.94</v>
@@ -4727,12 +4730,12 @@
         <v>0.0</v>
       </c>
       <c r="M91" t="n">
-        <v>728.82</v>
+        <v>728.8199999999999</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>42756.0</v>
@@ -4741,16 +4744,16 @@
         <v>42760.0</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E92" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F92" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G92" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H92" t="n">
         <v>179.97</v>
@@ -4773,7 +4776,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>42756.0</v>
@@ -4782,16 +4785,16 @@
         <v>42760.0</v>
       </c>
       <c r="D93" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E93" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F93" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G93" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H93" t="n">
         <v>99.696</v>
@@ -4809,12 +4812,12 @@
         <v>0.0</v>
       </c>
       <c r="M93" t="n">
-        <v>478.5408</v>
+        <v>478.54079999999993</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>42756.0</v>
@@ -4823,16 +4826,16 @@
         <v>42760.0</v>
       </c>
       <c r="D94" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F94" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G94" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H94" t="n">
         <v>27.936</v>
@@ -4855,7 +4858,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>42756.0</v>
@@ -4864,16 +4867,16 @@
         <v>42760.0</v>
       </c>
       <c r="D95" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F95" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G95" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H95" t="n">
         <v>84.98</v>
@@ -4896,7 +4899,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>42756.0</v>
@@ -4905,16 +4908,16 @@
         <v>42760.0</v>
       </c>
       <c r="D96" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F96" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G96" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H96" t="n">
         <v>18.72</v>
@@ -4937,7 +4940,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>42756.0</v>
@@ -4946,16 +4949,16 @@
         <v>42760.0</v>
       </c>
       <c r="D97" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E97" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F97" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G97" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H97" t="n">
         <v>268.576</v>
@@ -4978,7 +4981,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>42756.0</v>
@@ -4987,16 +4990,16 @@
         <v>42761.0</v>
       </c>
       <c r="D98" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E98" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H98" t="n">
         <v>348.208</v>
@@ -5014,12 +5017,12 @@
         <v>0.0</v>
       </c>
       <c r="M98" t="n">
-        <v>1949.9648</v>
+        <v>1949.9648000000002</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>42756.0</v>
@@ -5028,16 +5031,16 @@
         <v>42761.0</v>
       </c>
       <c r="D99" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E99" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H99" t="n">
         <v>35.784</v>
@@ -5060,7 +5063,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>42757.0</v>
@@ -5069,16 +5072,16 @@
         <v>42760.0</v>
       </c>
       <c r="D100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E100" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F100" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G100" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H100" t="n">
         <v>15.12</v>
@@ -5101,7 +5104,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>42757.0</v>
@@ -5110,16 +5113,16 @@
         <v>42760.0</v>
       </c>
       <c r="D101" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E101" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F101" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G101" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H101" t="n">
         <v>7.872</v>
@@ -5142,7 +5145,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>42757.0</v>
@@ -5151,16 +5154,16 @@
         <v>42762.0</v>
       </c>
       <c r="D102" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E102" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F102" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G102" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H102" t="n">
         <v>2999.95</v>
@@ -5183,7 +5186,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>42757.0</v>
@@ -5192,16 +5195,16 @@
         <v>42762.0</v>
       </c>
       <c r="D103" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F103" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G103" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H103" t="n">
         <v>51.45</v>
@@ -5219,12 +5222,12 @@
         <v>0.0</v>
       </c>
       <c r="M103" t="n">
-        <v>154.35</v>
+        <v>154.35000000000002</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>42757.0</v>
@@ -5233,16 +5236,16 @@
         <v>42762.0</v>
       </c>
       <c r="D104" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F104" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G104" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H104" t="n">
         <v>11.96</v>
@@ -5265,7 +5268,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>42757.0</v>
@@ -5274,16 +5277,16 @@
         <v>42762.0</v>
       </c>
       <c r="D105" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F105" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G105" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H105" t="n">
         <v>1126.02</v>
@@ -5306,7 +5309,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>42758.0</v>
@@ -5315,16 +5318,16 @@
         <v>42760.0</v>
       </c>
       <c r="D106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F106" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G106" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H106" t="n">
         <v>210.98</v>
@@ -5347,7 +5350,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>42758.0</v>
@@ -5356,16 +5359,16 @@
         <v>42763.0</v>
       </c>
       <c r="D107" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E107" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F107" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G107" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H107" t="n">
         <v>19.68</v>
@@ -5388,7 +5391,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>42758.0</v>
@@ -5397,16 +5400,16 @@
         <v>42763.0</v>
       </c>
       <c r="D108" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E108" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F108" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G108" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H108" t="n">
         <v>25.92</v>
@@ -5429,7 +5432,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>42758.0</v>
@@ -5438,16 +5441,16 @@
         <v>42763.0</v>
       </c>
       <c r="D109" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E109" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F109" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G109" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H109" t="n">
         <v>6.48</v>
@@ -5470,7 +5473,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>42758.0</v>
@@ -5479,16 +5482,16 @@
         <v>42763.0</v>
       </c>
       <c r="D110" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E110" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G110" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H110" t="n">
         <v>86.352</v>
@@ -5506,12 +5509,12 @@
         <v>0.0</v>
       </c>
       <c r="M110" t="n">
-        <v>414.4896</v>
+        <v>414.48960000000005</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>42758.0</v>
@@ -5520,16 +5523,16 @@
         <v>42762.0</v>
       </c>
       <c r="D111" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E111" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F111" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G111" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H111" t="n">
         <v>95.984</v>
@@ -5552,7 +5555,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>42758.0</v>
@@ -5561,16 +5564,16 @@
         <v>42762.0</v>
       </c>
       <c r="D112" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E112" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F112" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G112" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H112" t="n">
         <v>4.938</v>
@@ -5588,12 +5591,12 @@
         <v>0.0</v>
       </c>
       <c r="M112" t="n">
-        <v>2.9628</v>
+        <v>2.9628000000000005</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>42759.0</v>
@@ -5602,16 +5605,16 @@
         <v>42764.0</v>
       </c>
       <c r="D113" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E113" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F113" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G113" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H113" t="n">
         <v>25.86</v>
@@ -5634,7 +5637,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>42759.0</v>
@@ -5643,16 +5646,16 @@
         <v>42764.0</v>
       </c>
       <c r="D114" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E114" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F114" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G114" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H114" t="n">
         <v>276.784</v>
@@ -5675,7 +5678,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>42759.0</v>
@@ -5684,16 +5687,16 @@
         <v>42764.0</v>
       </c>
       <c r="D115" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E115" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F115" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G115" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H115" t="n">
         <v>110.352</v>
@@ -5716,7 +5719,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>42759.0</v>
@@ -5725,16 +5728,16 @@
         <v>42765.0</v>
       </c>
       <c r="D116" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G116" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H116" t="n">
         <v>5.67</v>
@@ -5752,12 +5755,12 @@
         <v>0.0</v>
       </c>
       <c r="M116" t="n">
-        <v>17.01</v>
+        <v>17.009999999999998</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>42761.0</v>
@@ -5766,16 +5769,16 @@
         <v>42762.0</v>
       </c>
       <c r="D117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E117" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F117" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G117" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H117" t="n">
         <v>18.16</v>
@@ -5798,7 +5801,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>42761.0</v>
@@ -5807,16 +5810,16 @@
         <v>42766.0</v>
       </c>
       <c r="D118" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E118" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G118" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H118" t="n">
         <v>15.47</v>
@@ -5839,7 +5842,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>42761.0</v>
@@ -5848,16 +5851,16 @@
         <v>42766.0</v>
       </c>
       <c r="D119" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G119" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H119" t="n">
         <v>7.16</v>
@@ -5880,7 +5883,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>42761.0</v>
@@ -5889,16 +5892,16 @@
         <v>42765.0</v>
       </c>
       <c r="D120" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E120" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F120" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G120" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H120" t="n">
         <v>11.84</v>
@@ -5921,7 +5924,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>42761.0</v>
@@ -5930,16 +5933,16 @@
         <v>42766.0</v>
       </c>
       <c r="D121" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E121" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G121" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H121" t="n">
         <v>62.72</v>
@@ -5962,7 +5965,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>42761.0</v>
@@ -5971,16 +5974,16 @@
         <v>42766.0</v>
       </c>
       <c r="D122" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E122" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G122" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H122" t="n">
         <v>2939.93</v>
@@ -6003,7 +6006,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>42762.0</v>
@@ -6012,16 +6015,16 @@
         <v>42765.0</v>
       </c>
       <c r="D123" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E123" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F123" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G123" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H123" t="n">
         <v>14.016</v>
@@ -6039,12 +6042,12 @@
         <v>0.0</v>
       </c>
       <c r="M123" t="n">
-        <v>33.6384</v>
+        <v>33.638400000000004</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>42762.0</v>
@@ -6053,16 +6056,16 @@
         <v>42765.0</v>
       </c>
       <c r="D124" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E124" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F124" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G124" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H124" t="n">
         <v>71.976</v>
@@ -6085,7 +6088,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>42762.0</v>
@@ -6094,16 +6097,16 @@
         <v>42765.0</v>
       </c>
       <c r="D125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E125" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F125" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G125" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H125" t="n">
         <v>107.982</v>
@@ -6126,7 +6129,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>42762.0</v>
@@ -6135,16 +6138,16 @@
         <v>42766.0</v>
       </c>
       <c r="D126" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E126" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F126" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G126" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H126" t="n">
         <v>137.94</v>
@@ -6167,7 +6170,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>42763.0</v>
@@ -6176,16 +6179,16 @@
         <v>42766.0</v>
       </c>
       <c r="D127" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E127" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F127" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G127" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H127" t="n">
         <v>239.97</v>
@@ -6208,7 +6211,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>42763.0</v>
@@ -6217,16 +6220,16 @@
         <v>42766.0</v>
       </c>
       <c r="D128" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F128" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G128" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H128" t="n">
         <v>37.74</v>
@@ -6249,7 +6252,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>42763.0</v>
@@ -6258,16 +6261,16 @@
         <v>42767.0</v>
       </c>
       <c r="D129" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E129" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F129" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G129" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H129" t="n">
         <v>279.9</v>
@@ -6290,7 +6293,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>42763.0</v>
@@ -6299,16 +6302,16 @@
         <v>42767.0</v>
       </c>
       <c r="D130" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E130" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F130" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G130" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H130" t="n">
         <v>449.91</v>
@@ -6331,7 +6334,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>42764.0</v>
@@ -6340,16 +6343,16 @@
         <v>42767.0</v>
       </c>
       <c r="D131" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E131" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F131" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G131" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H131" t="n">
         <v>4.768</v>
@@ -6372,7 +6375,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>42764.0</v>
@@ -6381,16 +6384,16 @@
         <v>42766.0</v>
       </c>
       <c r="D132" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E132" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F132" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G132" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H132" t="n">
         <v>12.96</v>
@@ -6413,7 +6416,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>42764.0</v>
@@ -6422,16 +6425,16 @@
         <v>42766.0</v>
       </c>
       <c r="D133" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E133" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F133" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G133" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H133" t="n">
         <v>94.85</v>
@@ -6454,7 +6457,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>42764.0</v>
@@ -6463,16 +6466,16 @@
         <v>42766.0</v>
       </c>
       <c r="D134" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E134" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F134" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G134" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H134" t="n">
         <v>13.48</v>
@@ -6495,7 +6498,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>42764.0</v>
@@ -6504,16 +6507,16 @@
         <v>42766.0</v>
       </c>
       <c r="D135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E135" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F135" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G135" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H135" t="n">
         <v>14.91</v>
@@ -6531,12 +6534,12 @@
         <v>0.0</v>
       </c>
       <c r="M135" t="n">
-        <v>44.73</v>
+        <v>44.730000000000004</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>42764.0</v>
@@ -6545,16 +6548,16 @@
         <v>42771.0</v>
       </c>
       <c r="D136" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E136" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F136" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G136" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H136" t="n">
         <v>5.22</v>
@@ -6577,7 +6580,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>42764.0</v>
@@ -6586,16 +6589,16 @@
         <v>42768.0</v>
       </c>
       <c r="D137" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E137" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F137" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G137" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H137" t="n">
         <v>8.34</v>
@@ -6618,7 +6621,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B138" s="1" t="n">
         <v>42764.0</v>
@@ -6627,16 +6630,16 @@
         <v>42768.0</v>
       </c>
       <c r="D138" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F138" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G138" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H138" t="n">
         <v>8.57</v>
@@ -6659,7 +6662,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>42764.0</v>
@@ -6668,16 +6671,16 @@
         <v>42768.0</v>
       </c>
       <c r="D139" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F139" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G139" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H139" t="n">
         <v>119.616</v>
@@ -6700,7 +6703,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B140" s="1" t="n">
         <v>42764.0</v>
@@ -6709,16 +6712,16 @@
         <v>42768.0</v>
       </c>
       <c r="D140" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E140" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F140" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G140" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H140" t="n">
         <v>12.128</v>
@@ -6736,12 +6739,12 @@
         <v>0.0</v>
       </c>
       <c r="M140" t="n">
-        <v>9.7024</v>
+        <v>9.702399999999997</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>42765.0</v>
@@ -6750,16 +6753,16 @@
         <v>42768.0</v>
       </c>
       <c r="D141" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E141" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F141" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G141" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H141" t="n">
         <v>604.768</v>
@@ -6777,12 +6780,12 @@
         <v>0.0</v>
       </c>
       <c r="M141" t="n">
-        <v>1935.2576</v>
+        <v>1935.2576000000001</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B142" s="1" t="n">
         <v>42765.0</v>
@@ -6791,16 +6794,16 @@
         <v>42765.0</v>
       </c>
       <c r="D142" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E142" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F142" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G142" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H142" t="n">
         <v>129.3</v>
@@ -6823,7 +6826,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B143" s="1" t="n">
         <v>42765.0</v>
@@ -6832,16 +6835,16 @@
         <v>42771.0</v>
       </c>
       <c r="D143" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E143" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F143" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G143" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H143" t="n">
         <v>18.28</v>
@@ -6864,7 +6867,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B144" s="1" t="n">
         <v>42765.0</v>
@@ -6873,16 +6876,16 @@
         <v>42771.0</v>
       </c>
       <c r="D144" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E144" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F144" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G144" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H144" t="n">
         <v>207.0</v>
@@ -6905,7 +6908,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>42765.0</v>
@@ -6914,16 +6917,16 @@
         <v>42771.0</v>
       </c>
       <c r="D145" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F145" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G145" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H145" t="n">
         <v>32.35</v>
@@ -6946,7 +6949,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B146" s="1" t="n">
         <v>42765.0</v>
@@ -6955,16 +6958,16 @@
         <v>42771.0</v>
       </c>
       <c r="D146" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F146" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G146" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H146" t="n">
         <v>7.71</v>
@@ -6987,7 +6990,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B147" s="1" t="n">
         <v>42765.0</v>
@@ -6996,16 +6999,16 @@
         <v>42771.0</v>
       </c>
       <c r="D147" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F147" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G147" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H147" t="n">
         <v>40.3</v>
@@ -7028,7 +7031,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>42765.0</v>
@@ -7037,16 +7040,16 @@
         <v>42771.0</v>
       </c>
       <c r="D148" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E148" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F148" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G148" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H148" t="n">
         <v>34.58</v>
@@ -7069,7 +7072,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>42765.0</v>
@@ -7078,16 +7081,16 @@
         <v>42772.0</v>
       </c>
       <c r="D149" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E149" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F149" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G149" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H149" t="n">
         <v>12.74</v>
@@ -7110,7 +7113,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>42765.0</v>
@@ -7119,16 +7122,16 @@
         <v>42772.0</v>
       </c>
       <c r="D150" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E150" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F150" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G150" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H150" t="n">
         <v>8.82</v>
@@ -7151,7 +7154,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>42765.0</v>
@@ -7160,16 +7163,16 @@
         <v>42772.0</v>
       </c>
       <c r="D151" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E151" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F151" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G151" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H151" t="n">
         <v>120.784</v>
@@ -7192,7 +7195,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>42765.0</v>
@@ -7201,16 +7204,16 @@
         <v>42772.0</v>
       </c>
       <c r="D152" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F152" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G152" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H152" t="n">
         <v>69.375</v>
@@ -7233,7 +7236,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>42765.0</v>
@@ -7242,16 +7245,16 @@
         <v>42772.0</v>
       </c>
       <c r="D153" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F153" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G153" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H153" t="n">
         <v>31.68</v>
@@ -7274,7 +7277,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>42765.0</v>
@@ -7283,16 +7286,16 @@
         <v>42772.0</v>
       </c>
       <c r="D154" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E154" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F154" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G154" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H154" t="n">
         <v>2003.168</v>
@@ -7315,7 +7318,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>42765.0</v>
@@ -7324,16 +7327,16 @@
         <v>42772.0</v>
       </c>
       <c r="D155" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F155" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G155" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H155" t="n">
         <v>9.344</v>
@@ -7351,12 +7354,12 @@
         <v>0.0</v>
       </c>
       <c r="M155" t="n">
-        <v>14.9504</v>
+        <v>14.950399999999998</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>42765.0</v>
@@ -7365,16 +7368,16 @@
         <v>42770.0</v>
       </c>
       <c r="D156" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F156" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G156" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H156" t="n">
         <v>419.136</v>
